--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164901E3-31A9-284B-A582-CA1EA6BCDFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BEAD66-4857-9B4E-A9CB-762E50A3D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -787,24 +787,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,51 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025D3D-8BEE-C54D-9DAF-5D3E181419BD}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58:R59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1191,7 +1191,7 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="9" width="10" style="4" customWidth="1"/>
+    <col min="4" max="9" width="10" style="3" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="13" max="19" width="35" customWidth="1"/>
   </cols>
@@ -1200,26 +1200,26 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1227,47 +1227,47 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1281,16 +1281,16 @@
       <c r="C3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M3" t="s">
@@ -1308,8 +1308,8 @@
       <c r="Q3" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
@@ -1321,29 +1321,29 @@
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="21"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
@@ -1355,29 +1355,29 @@
       <c r="C5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="M5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
@@ -1389,35 +1389,20 @@
       <c r="C6" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="Q6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="21"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
@@ -1429,23 +1414,23 @@
       <c r="C7" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
@@ -1457,33 +1442,33 @@
       <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="S8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1497,33 +1482,33 @@
       <c r="C9" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
@@ -1535,31 +1520,31 @@
       <c r="C10" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="21"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
@@ -1571,29 +1556,29 @@
       <c r="C11" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="M11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
@@ -1605,23 +1590,35 @@
       <c r="C12" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="M12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
@@ -1633,23 +1630,23 @@
       <c r="C13" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
@@ -1661,33 +1658,33 @@
       <c r="C14" s="2">
         <v>0.625</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1701,33 +1698,33 @@
       <c r="C15" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="1"/>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M15" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
@@ -1739,29 +1736,29 @@
       <c r="C16" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="1"/>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" s="21"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2">
@@ -1773,29 +1770,29 @@
       <c r="C17" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="1"/>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
+      <c r="M17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
@@ -1807,33 +1804,35 @@
       <c r="C18" s="2">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="1"/>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="21" t="s">
+      <c r="M18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="N18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="O18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="P18" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="Q18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
@@ -1845,23 +1844,23 @@
       <c r="C19" s="2">
         <v>0.72916666666666696</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="1"/>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
@@ -1873,33 +1872,33 @@
       <c r="C20" s="2">
         <v>0.75</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="1"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="20" t="s">
+      <c r="S20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1913,35 +1912,35 @@
       <c r="C21" s="2">
         <v>0.77083333333333404</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" s="20" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="L21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2">
@@ -1953,29 +1952,29 @@
       <c r="C22" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" s="20" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="L22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S22" s="21"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2">
@@ -1987,31 +1986,31 @@
       <c r="C23" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
+      <c r="M23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
@@ -2023,35 +2022,35 @@
       <c r="C24" s="2">
         <v>0.83333333333333404</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="5"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="1"/>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O24" s="21" t="s">
+      <c r="M24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="N24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="Q24" s="21" t="s">
+      <c r="O24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="P24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S24" s="21"/>
+      <c r="Q24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
@@ -2063,23 +2062,23 @@
       <c r="C25" s="2">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="5"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="1"/>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
       <c r="A26" s="2">
@@ -2091,45 +2090,45 @@
       <c r="C26" s="2">
         <v>0.875000000000001</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="24" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="Q26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="20" t="s">
+      <c r="S26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2143,33 +2142,33 @@
       <c r="C27" s="2">
         <v>0.89583333333333404</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="21" t="s">
+      <c r="P27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="Q27" s="21" t="s">
+      <c r="Q27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2">
@@ -2181,29 +2180,29 @@
       <c r="C28" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="1"/>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" s="21"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2">
@@ -2224,22 +2223,22 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="1"/>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="M29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
@@ -2258,28 +2257,28 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="1"/>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="O30" s="21" t="s">
+      <c r="M30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="P30" s="21" t="s">
+      <c r="N30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="Q30" s="21" t="s">
+      <c r="O30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="P30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S30" s="21"/>
+      <c r="Q30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
@@ -2298,16 +2297,16 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
@@ -2328,26 +2327,26 @@
       <c r="H32" s="12"/>
       <c r="I32" s="13"/>
       <c r="J32" s="1"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="20" t="s">
+      <c r="P32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="Q32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="20" t="s">
+      <c r="R32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S32" s="20" t="s">
+      <c r="S32" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2368,26 +2367,26 @@
       <c r="H33" s="15"/>
       <c r="I33" s="16"/>
       <c r="J33" s="1"/>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O33" s="21" t="s">
+      <c r="O33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="P33" s="21" t="s">
+      <c r="P33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Q33" s="21" t="s">
+      <c r="Q33" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
@@ -2406,22 +2405,22 @@
       <c r="H34" s="15"/>
       <c r="I34" s="16"/>
       <c r="J34" s="1"/>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S34" s="21"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
@@ -2440,22 +2439,22 @@
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
       <c r="J35" s="1"/>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
+      <c r="M35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
@@ -2474,466 +2473,458 @@
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
       <c r="J36" s="1"/>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O36" s="21" t="s">
+      <c r="M36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="N36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Q36" s="21" t="s">
+      <c r="O36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="R36" s="21" t="s">
+      <c r="P36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="S36" s="21"/>
+      <c r="Q36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="L38" s="20"/>
-      <c r="M38" s="20" t="s">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R38" s="20" t="s">
+      <c r="R38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="S38" s="20" t="s">
+      <c r="S38" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O39" s="21" t="s">
+      <c r="O39" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="P39" s="21" t="s">
+      <c r="P39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q39" s="21" t="s">
+      <c r="Q39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="21"/>
-      <c r="N40" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" s="21"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="L41" s="20" t="s">
+      <c r="L41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
+      <c r="M41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="L42" s="20" t="s">
+      <c r="L42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="L43" s="20" t="s">
+      <c r="L43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="L44" s="20"/>
-      <c r="M44" s="20" t="s">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O44" s="20" t="s">
+      <c r="O44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P44" s="20" t="s">
+      <c r="P44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="Q44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="R44" s="20" t="s">
+      <c r="R44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="S44" s="20" t="s">
+      <c r="S44" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:19">
-      <c r="L45" s="20" t="s">
+      <c r="L45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="N45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O45" s="21" t="s">
+      <c r="O45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P45" s="21" t="s">
+      <c r="P45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="L46" s="20" t="s">
+      <c r="L46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="21"/>
-      <c r="N46" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O46" s="21"/>
-      <c r="P46" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S46" s="21"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S46" s="6"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="L47" s="20" t="s">
+      <c r="L47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
+      <c r="M47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="L48" s="20" t="s">
+      <c r="L48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
     </row>
     <row r="49" spans="12:19">
-      <c r="L49" s="20" t="s">
+      <c r="L49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
     </row>
     <row r="50" spans="12:19">
-      <c r="L50" s="20"/>
-      <c r="M50" s="20" t="s">
+      <c r="L50" s="5"/>
+      <c r="M50" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P50" s="20" t="s">
+      <c r="P50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="R50" s="20" t="s">
+      <c r="R50" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="S50" s="20" t="s">
+      <c r="S50" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="51" spans="12:19">
-      <c r="L51" s="20" t="s">
+      <c r="L51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N51" s="21" t="s">
+      <c r="N51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P51" s="21" t="s">
+      <c r="P51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q51" s="21" t="s">
+      <c r="Q51" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
     </row>
     <row r="52" spans="12:19">
-      <c r="L52" s="20" t="s">
+      <c r="L52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M52" s="21"/>
-      <c r="N52" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O52" s="21"/>
-      <c r="P52" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S52" s="21"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S52" s="6"/>
     </row>
     <row r="53" spans="12:19">
-      <c r="L53" s="20" t="s">
+      <c r="L53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
+      <c r="M53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
     </row>
     <row r="54" spans="12:19">
-      <c r="L54" s="20" t="s">
+      <c r="L54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
     </row>
     <row r="55" spans="12:19">
-      <c r="L55" s="20" t="s">
+      <c r="L55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="12:19">
-      <c r="L56" s="20"/>
-      <c r="M56" s="20" t="s">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O56" s="20" t="s">
+      <c r="O56" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P56" s="20" t="s">
+      <c r="P56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="Q56" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R56" s="20" t="s">
+      <c r="R56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S56" s="20" t="s">
+      <c r="S56" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="12:19">
-      <c r="L57" s="20" t="s">
+      <c r="L57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="M57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N57" s="21" t="s">
+      <c r="N57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O57" s="21" t="s">
+      <c r="O57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P57" s="21" t="s">
+      <c r="P57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q57" s="21" t="s">
+      <c r="Q57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
     </row>
     <row r="58" spans="12:19">
-      <c r="L58" s="20" t="s">
+      <c r="L58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M58" s="21"/>
-      <c r="N58" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O58" s="21"/>
-      <c r="P58" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="S58" s="21"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S58" s="6"/>
     </row>
     <row r="59" spans="12:19">
-      <c r="L59" s="20" t="s">
+      <c r="L59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M59" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N59" s="21"/>
-      <c r="O59" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
+      <c r="M59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
     </row>
     <row r="60" spans="12:19">
-      <c r="L60" s="20" t="s">
+      <c r="L60" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
     </row>
     <row r="61" spans="12:19">
-      <c r="L61" s="20" t="s">
+      <c r="L61" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BEAD66-4857-9B4E-A9CB-762E50A3D0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0ECC6-5EFC-F24A-9BB2-CDA93397607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="130">
   <si>
     <t>네트워크와 자료구조</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>파이썬      알고리즘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3월13일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -454,6 +450,32 @@
   <si>
     <t>---</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 알고리즘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월22일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월23일</t>
+  </si>
+  <si>
+    <t>5월24일</t>
+  </si>
+  <si>
+    <t>5월25일</t>
+  </si>
+  <si>
+    <t>5월26일</t>
+  </si>
+  <si>
+    <t>5월27일</t>
+  </si>
+  <si>
+    <t>5월28일</t>
   </si>
 </sst>
 </file>
@@ -608,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -756,6 +778,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,9 +873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,10 +909,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025D3D-8BEE-C54D-9DAF-5D3E181419BD}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1250,25 +1339,25 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1281,32 +1370,32 @@
       <c r="C3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="L3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
         <v>100</v>
       </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="s">
         <v>101</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>102</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1321,27 +1410,27 @@
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="L4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S4" s="6"/>
     </row>
@@ -1355,26 +1444,26 @@
       <c r="C5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1389,18 +1478,18 @@
       <c r="C6" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S6" s="6"/>
     </row>
@@ -1414,11 +1503,11 @@
       <c r="C7" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="L7" s="5" t="s">
@@ -1442,34 +1531,34 @@
       <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1482,30 +1571,30 @@
       <c r="C9" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="L9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1520,29 +1609,29 @@
       <c r="C10" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S10" s="6"/>
     </row>
@@ -1556,26 +1645,26 @@
       <c r="C11" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1"/>
       <c r="L11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1590,35 +1679,25 @@
       <c r="C12" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1"/>
       <c r="L12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
@@ -1630,12 +1709,12 @@
       <c r="C13" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
@@ -1658,34 +1737,34 @@
       <c r="C14" s="2">
         <v>0.625</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="1"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1698,30 +1777,30 @@
       <c r="C15" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1"/>
       <c r="L15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1736,27 +1815,27 @@
       <c r="C16" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="1"/>
       <c r="L16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S16" s="6"/>
     </row>
@@ -1770,26 +1849,26 @@
       <c r="C17" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1"/>
       <c r="L17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1804,35 +1883,25 @@
       <c r="C18" s="2">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="1"/>
       <c r="L18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S18" s="6"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
@@ -1844,12 +1913,12 @@
       <c r="C19" s="2">
         <v>0.72916666666666696</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1"/>
       <c r="L19" s="5" t="s">
         <v>21</v>
@@ -1872,34 +1941,34 @@
       <c r="C20" s="2">
         <v>0.75</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="1"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="O20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1912,32 +1981,32 @@
       <c r="C21" s="2">
         <v>0.77083333333333404</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="L21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -1952,27 +2021,27 @@
       <c r="C22" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="L22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S22" s="6"/>
     </row>
@@ -1986,28 +2055,28 @@
       <c r="C23" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="L23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2022,35 +2091,25 @@
       <c r="C24" s="2">
         <v>0.83333333333333404</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="4"/>
       <c r="J24" s="1"/>
       <c r="L24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="S24" s="6"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">
@@ -2062,11 +2121,11 @@
       <c r="C25" s="2">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1"/>
       <c r="L25" s="5" t="s">
@@ -2090,46 +2149,46 @@
       <c r="C26" s="2">
         <v>0.875000000000001</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="H26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="1"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="O26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="R26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="S26" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2142,30 +2201,30 @@
       <c r="C27" s="2">
         <v>0.89583333333333404</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1"/>
       <c r="L27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2180,31 +2239,31 @@
       <c r="C28" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="22"/>
       <c r="J28" s="1"/>
       <c r="L28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="18" customHeight="1">
       <c r="A29" s="2">
         <v>0.91666666666666596</v>
       </c>
@@ -2214,28 +2273,28 @@
       <c r="C29" s="2">
         <v>0.937500000000001</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="D29" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="1"/>
       <c r="L29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2250,35 +2309,25 @@
       <c r="C30" s="2">
         <v>0.95833333333333404</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="1"/>
       <c r="L30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>111</v>
+      <c r="M30" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S30" s="6"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
@@ -2290,12 +2339,12 @@
       <c r="C31" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="1"/>
       <c r="L31" s="5" t="s">
         <v>21</v>
@@ -2318,36 +2367,36 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="1"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="O32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="Q32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="R32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="S32" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2360,30 +2409,30 @@
       <c r="C33" s="2">
         <v>1.0208333333333299</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="1"/>
       <c r="L33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2398,27 +2447,27 @@
       <c r="C34" s="2">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="1"/>
       <c r="L34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S34" s="6"/>
     </row>
@@ -2432,26 +2481,26 @@
       <c r="C35" s="2">
         <v>1.0625</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="1"/>
       <c r="L35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -2466,35 +2515,25 @@
       <c r="C36" s="2">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="1"/>
       <c r="L36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="S36" s="6"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="37" spans="1:19">
       <c r="L37" s="5" t="s">
@@ -2511,64 +2550,64 @@
     <row r="38" spans="1:19">
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="O38" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="Q38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="R38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="S38" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="L39" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
       <c r="L40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S40" s="6"/>
     </row>
@@ -2577,26 +2616,32 @@
         <v>19</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" ht="18" customHeight="1">
       <c r="L42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="43" spans="1:19">
       <c r="L43" s="5" t="s">
@@ -2613,42 +2658,42 @@
     <row r="44" spans="1:19">
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="O44" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="P44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="Q44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="R44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="S44" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="L45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
@@ -2656,19 +2701,19 @@
     </row>
     <row r="46" spans="1:19">
       <c r="L46" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S46" s="6"/>
     </row>
@@ -2677,15 +2722,15 @@
         <v>19</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -2694,13 +2739,15 @@
       <c r="L48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="M48" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="49" spans="12:19">
       <c r="L49" s="5" t="s">
@@ -2717,64 +2764,64 @@
     <row r="50" spans="12:19">
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N50" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="O50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P50" s="5" t="s">
+      <c r="Q50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="R50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="R50" s="5" t="s">
+      <c r="S50" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="12:19">
       <c r="L51" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
     </row>
     <row r="52" spans="12:19">
       <c r="L52" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S52" s="6"/>
     </row>
@@ -2783,15 +2830,15 @@
         <v>19</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -2800,13 +2847,15 @@
       <c r="L54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
+      <c r="M54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="55" spans="12:19">
       <c r="L55" s="5" t="s">
@@ -2823,64 +2872,64 @@
     <row r="56" spans="12:19">
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="O56" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="P56" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P56" s="5" t="s">
+      <c r="Q56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="R56" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="S56" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="12:19">
       <c r="L57" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="12:19">
       <c r="L58" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S58" s="6"/>
     </row>
@@ -2889,15 +2938,15 @@
         <v>19</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -2906,13 +2955,15 @@
       <c r="L60" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
+      <c r="M60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="12:19">
       <c r="L61" s="5" t="s">
@@ -2926,15 +2977,125 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
     </row>
+    <row r="62" spans="12:19">
+      <c r="L62" s="5"/>
+      <c r="M62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="12:19">
+      <c r="L63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+    </row>
+    <row r="64" spans="12:19">
+      <c r="L64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M64" s="6"/>
+      <c r="N64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O64" s="6"/>
+      <c r="P64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S64" s="6"/>
+    </row>
+    <row r="65" spans="12:19">
+      <c r="L65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N65" s="6"/>
+      <c r="O65" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+    </row>
+    <row r="66" spans="12:19">
+      <c r="L66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+    </row>
+    <row r="67" spans="12:19">
+      <c r="L67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="D29:I31"/>
+    <mergeCell ref="D26:D28"/>
     <mergeCell ref="D32:I36"/>
     <mergeCell ref="D3:H20"/>
     <mergeCell ref="I10:I20"/>
     <mergeCell ref="D21:J22"/>
     <mergeCell ref="D23:H25"/>
-    <mergeCell ref="D26:D28"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="E26:E28"/>

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0ECC6-5EFC-F24A-9BB2-CDA93397607B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8AABE-257F-6F4F-9DAF-02932D2A0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="121">
   <si>
     <t>네트워크와 자료구조</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -120,28 +120,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3월13일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월14일</t>
-  </si>
-  <si>
-    <t>3월15일</t>
-  </si>
-  <si>
-    <t>3월16일</t>
-  </si>
-  <si>
-    <t>3월17일</t>
-  </si>
-  <si>
-    <t>3월18일</t>
-  </si>
-  <si>
-    <t>3월19일</t>
-  </si>
-  <si>
     <t>수업복습</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -368,14 +346,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>JS 기초 활용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드 종합</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>특강</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -392,10 +362,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1,2장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3장</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -476,6 +442,10 @@
   </si>
   <si>
     <t>5월28일</t>
+  </si>
+  <si>
+    <t>1-3장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -873,6 +843,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,42 +916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1269,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025D3D-8BEE-C54D-9DAF-5D3E181419BD}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1339,25 +1309,25 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1370,32 +1340,32 @@
       <c r="C3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="L3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1410,28 +1380,22 @@
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="L4" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19">
@@ -1444,26 +1408,26 @@
       <c r="C5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -1478,20 +1442,34 @@
       <c r="C6" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="Q6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
@@ -1503,11 +1481,11 @@
       <c r="C7" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="L7" s="5" t="s">
@@ -1531,11 +1509,11 @@
       <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="L8" s="5"/>
@@ -1571,30 +1549,30 @@
       <c r="C9" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1609,29 +1587,29 @@
       <c r="C10" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S10" s="6"/>
     </row>
@@ -1645,26 +1623,26 @@
       <c r="C11" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="1"/>
       <c r="L11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1679,24 +1657,33 @@
       <c r="C12" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="1"/>
       <c r="L12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1709,12 +1696,12 @@
       <c r="C13" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="1"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
@@ -1737,12 +1724,12 @@
       <c r="C14" s="2">
         <v>0.625</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="1"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
@@ -1777,30 +1764,30 @@
       <c r="C15" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="1"/>
       <c r="L15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1815,27 +1802,27 @@
       <c r="C16" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="1"/>
       <c r="L16" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S16" s="6"/>
     </row>
@@ -1849,26 +1836,26 @@
       <c r="C17" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="1"/>
       <c r="L17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1883,23 +1870,32 @@
       <c r="C18" s="2">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="1"/>
       <c r="L18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1913,12 +1909,12 @@
       <c r="C19" s="2">
         <v>0.72916666666666696</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="1"/>
       <c r="L19" s="5" t="s">
         <v>21</v>
@@ -1941,12 +1937,12 @@
       <c r="C20" s="2">
         <v>0.75</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="1"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
@@ -1981,32 +1977,32 @@
       <c r="C21" s="2">
         <v>0.77083333333333404</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
       <c r="L21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2021,27 +2017,27 @@
       <c r="C22" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
       <c r="L22" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S22" s="6"/>
     </row>
@@ -2055,28 +2051,28 @@
       <c r="C23" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="L23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2091,24 +2087,33 @@
       <c r="C24" s="2">
         <v>0.83333333333333404</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="4"/>
       <c r="J24" s="1"/>
       <c r="L24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>112</v>
+      <c r="M24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>114</v>
+        <v>96</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2121,11 +2126,11 @@
       <c r="C25" s="2">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1"/>
       <c r="L25" s="5" t="s">
@@ -2149,22 +2154,22 @@
       <c r="C26" s="2">
         <v>0.875000000000001</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="34" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="1"/>
@@ -2201,30 +2206,30 @@
       <c r="C27" s="2">
         <v>0.89583333333333404</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="22"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="1"/>
       <c r="L27" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2239,27 +2244,27 @@
       <c r="C28" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="1"/>
       <c r="L28" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S28" s="6"/>
     </row>
@@ -2273,28 +2278,28 @@
       <c r="C29" s="2">
         <v>0.937500000000001</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="D29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="1"/>
       <c r="L29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2309,24 +2314,33 @@
       <c r="C30" s="2">
         <v>0.95833333333333404</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="1"/>
       <c r="L30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>115</v>
+      <c r="M30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="P30" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="Q30" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2339,12 +2353,12 @@
       <c r="C31" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="1"/>
       <c r="L31" s="5" t="s">
         <v>21</v>
@@ -2367,14 +2381,14 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="1"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
@@ -2409,30 +2423,30 @@
       <c r="C33" s="2">
         <v>1.0208333333333299</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="1"/>
       <c r="L33" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2447,27 +2461,27 @@
       <c r="C34" s="2">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="1"/>
       <c r="L34" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S34" s="6"/>
     </row>
@@ -2481,26 +2495,26 @@
       <c r="C35" s="2">
         <v>1.0625</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="1"/>
       <c r="L35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -2515,24 +2529,33 @@
       <c r="C36" s="2">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="1"/>
       <c r="L36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>116</v>
+        <v>98</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2573,41 +2596,39 @@
     </row>
     <row r="39" spans="1:19">
       <c r="L39" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
       <c r="L40" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S40" s="6"/>
     </row>
@@ -2616,15 +2637,15 @@
         <v>19</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -2634,13 +2655,22 @@
         <v>20</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2681,39 +2711,41 @@
     </row>
     <row r="45" spans="1:19">
       <c r="L45" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q45" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
     </row>
     <row r="46" spans="1:19">
       <c r="L46" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M46" s="6"/>
       <c r="N46" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S46" s="6"/>
     </row>
@@ -2722,15 +2754,15 @@
         <v>19</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N47" s="6"/>
       <c r="O47" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -2740,12 +2772,21 @@
         <v>20</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R48" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2787,41 +2828,41 @@
     </row>
     <row r="51" spans="12:19">
       <c r="L51" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
     </row>
     <row r="52" spans="12:19">
       <c r="L52" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M52" s="6"/>
       <c r="N52" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S52" s="6"/>
     </row>
@@ -2830,15 +2871,15 @@
         <v>19</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -2848,13 +2889,22 @@
         <v>20</v>
       </c>
       <c r="M54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>111</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="12:19">
@@ -2872,64 +2922,64 @@
     <row r="56" spans="12:19">
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="S56" s="5" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="12:19">
       <c r="L57" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="12:19">
       <c r="L58" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M58" s="6"/>
       <c r="N58" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S58" s="6"/>
     </row>
@@ -2938,15 +2988,15 @@
         <v>19</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N59" s="6"/>
       <c r="O59" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -2956,14 +3006,24 @@
         <v>20</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S60" s="6"/>
     </row>
     <row r="61" spans="12:19">
       <c r="L61" s="5" t="s">
@@ -2976,116 +3036,6 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
-    </row>
-    <row r="62" spans="12:19">
-      <c r="L62" s="5"/>
-      <c r="M62" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="O62" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P62" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q62" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="12:19">
-      <c r="L63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-    </row>
-    <row r="64" spans="12:19">
-      <c r="L64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O64" s="6"/>
-      <c r="P64" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="S64" s="6"/>
-    </row>
-    <row r="65" spans="12:19">
-      <c r="L65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="N65" s="6"/>
-      <c r="O65" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-    </row>
-    <row r="66" spans="12:19">
-      <c r="L66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O66" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-    </row>
-    <row r="67" spans="12:19">
-      <c r="L67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8AABE-257F-6F4F-9DAF-02932D2A0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D79F1-7717-B745-8F26-BCAE90DB89E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1465,7 +1465,7 @@
         <v>111</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>111</v>
@@ -1668,19 +1668,19 @@
         <v>20</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>111</v>
@@ -1881,19 +1881,19 @@
         <v>20</v>
       </c>
       <c r="M18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>111</v>
@@ -2097,14 +2097,14 @@
       <c r="L24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>111</v>
@@ -2115,6 +2115,7 @@
       <c r="R24" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2">

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D79F1-7717-B745-8F26-BCAE90DB89E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A116D-2E21-DE4B-B03C-FFA4E38409AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="112">
   <si>
     <t>네트워크와 자료구조</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -51,44 +51,26 @@
   </si>
   <si>
     <t>화</t>
-  </si>
-  <si>
-    <t>화</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>수</t>
-  </si>
-  <si>
-    <t>수</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>목</t>
-  </si>
-  <si>
-    <t>목</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>금</t>
-  </si>
-  <si>
-    <t>금</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>토</t>
-  </si>
-  <si>
-    <t>토</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>일</t>
-  </si>
-  <si>
-    <t>일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -128,28 +110,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3월20일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월21일</t>
-  </si>
-  <si>
-    <t>3월22일</t>
-  </si>
-  <si>
-    <t>3월23일</t>
-  </si>
-  <si>
-    <t>3월24일</t>
-  </si>
-  <si>
-    <t>3월25일</t>
-  </si>
-  <si>
-    <t>3월26일</t>
-  </si>
-  <si>
     <t>3월27일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -327,17 +287,9 @@
     <t>5월21일</t>
   </si>
   <si>
-    <t>Django기초</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Django CRUD</t>
   </si>
   <si>
-    <t>Django CRUD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>미니 프로젝트</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -398,10 +350,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10장</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -446,6 +394,29 @@
   <si>
     <t>1-3장</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월29일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월30일</t>
+  </si>
+  <si>
+    <t>5월31일</t>
+  </si>
+  <si>
+    <t>6월1일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월2일</t>
+  </si>
+  <si>
+    <t>6월3일</t>
+  </si>
+  <si>
+    <t>6월4일</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025D3D-8BEE-C54D-9DAF-5D3E181419BD}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1261,25 +1232,25 @@
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19">
@@ -1290,45 +1261,43 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
@@ -1341,7 +1310,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -1350,24 +1319,20 @@
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19">
@@ -1388,13 +1353,19 @@
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="O4" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
@@ -1416,21 +1387,23 @@
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
@@ -1450,26 +1423,15 @@
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="L6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
@@ -1488,16 +1450,28 @@
       <c r="H7" s="31"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
@@ -1516,28 +1490,26 @@
       <c r="H8" s="31"/>
       <c r="I8" s="4"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="L8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
@@ -1557,24 +1529,20 @@
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="L9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19">
@@ -1593,24 +1561,24 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19">
@@ -1631,21 +1599,26 @@
       <c r="I11" s="31"/>
       <c r="J11" s="1"/>
       <c r="L11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
@@ -1665,26 +1638,15 @@
       <c r="I12" s="31"/>
       <c r="J12" s="1"/>
       <c r="L12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
@@ -1703,16 +1665,28 @@
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
@@ -1731,28 +1705,26 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
@@ -1772,24 +1744,20 @@
       <c r="I15" s="31"/>
       <c r="J15" s="1"/>
       <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19">
@@ -1810,20 +1778,20 @@
       <c r="I16" s="31"/>
       <c r="J16" s="1"/>
       <c r="L16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19">
@@ -1844,20 +1812,26 @@
       <c r="I17" s="31"/>
       <c r="J17" s="1"/>
       <c r="L17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R17" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19">
@@ -1878,26 +1852,15 @@
       <c r="I18" s="31"/>
       <c r="J18" s="1"/>
       <c r="L18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2">
@@ -1916,16 +1879,28 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="1"/>
-      <c r="L19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2">
@@ -1944,28 +1919,26 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="1"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="L20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2">
@@ -1978,7 +1951,7 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
@@ -1987,24 +1960,20 @@
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
       <c r="L21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
@@ -2025,20 +1994,20 @@
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
       <c r="L22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19">
@@ -2052,7 +2021,7 @@
         <v>0.8125</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -2061,21 +2030,26 @@
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="L23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2">
@@ -2095,26 +2069,14 @@
       <c r="I24" s="4"/>
       <c r="J24" s="1"/>
       <c r="L24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19">
@@ -2134,16 +2096,28 @@
       <c r="H25" s="33"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1"/>
-      <c r="L25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
       <c r="A26" s="2">
@@ -2156,46 +2130,44 @@
         <v>0.875000000000001</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="L26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2">
@@ -2215,24 +2187,20 @@
       <c r="I27" s="34"/>
       <c r="J27" s="1"/>
       <c r="L27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R27" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19">
@@ -2253,20 +2221,20 @@
       <c r="I28" s="34"/>
       <c r="J28" s="1"/>
       <c r="L28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="6"/>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
@@ -2280,7 +2248,7 @@
         <v>0.937500000000001</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2289,21 +2257,26 @@
       <c r="I29" s="12"/>
       <c r="J29" s="1"/>
       <c r="L29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
@@ -2323,26 +2296,15 @@
       <c r="I30" s="15"/>
       <c r="J30" s="1"/>
       <c r="L30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2">
@@ -2361,16 +2323,28 @@
       <c r="H31" s="17"/>
       <c r="I31" s="18"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2">
@@ -2383,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -2391,28 +2365,24 @@
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
       <c r="J32" s="1"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="L32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
@@ -2432,24 +2402,20 @@
       <c r="I33" s="27"/>
       <c r="J33" s="1"/>
       <c r="L33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R33" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19">
@@ -2470,20 +2436,20 @@
       <c r="I34" s="27"/>
       <c r="J34" s="1"/>
       <c r="L34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19">
@@ -2504,21 +2470,26 @@
       <c r="I35" s="27"/>
       <c r="J35" s="1"/>
       <c r="L35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
@@ -2538,505 +2509,470 @@
       <c r="I36" s="30"/>
       <c r="J36" s="1"/>
       <c r="L36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="L37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="L38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
     </row>
     <row r="39" spans="1:19">
       <c r="L39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="9" t="s">
         <v>95</v>
       </c>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="R39" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
       <c r="L40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R40" s="6"/>
       <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19">
       <c r="L41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-    </row>
-    <row r="42" spans="1:19" ht="18" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="L42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="R42" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="L43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:19">
-      <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="L44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
     </row>
     <row r="45" spans="1:19">
       <c r="L45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R45" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S45" s="6"/>
     </row>
     <row r="46" spans="1:19">
       <c r="L46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="N46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R46" s="6"/>
       <c r="S46" s="6"/>
     </row>
     <row r="47" spans="1:19">
       <c r="L47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N47" s="6"/>
-      <c r="O47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="48" spans="1:19">
       <c r="L48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="12:19">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R48" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="12:19">
-      <c r="L49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
+      <c r="R49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="50" spans="12:19">
-      <c r="L50" s="5"/>
-      <c r="M50" s="5" t="s">
+      <c r="L50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="N50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
     </row>
     <row r="51" spans="12:19">
       <c r="L51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R51" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S51" s="6"/>
     </row>
     <row r="52" spans="12:19">
       <c r="L52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" s="6"/>
-      <c r="N52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" s="6"/>
+      <c r="O52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R52" s="6"/>
       <c r="S52" s="6"/>
     </row>
     <row r="53" spans="12:19">
       <c r="L53" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="12:19" ht="18" customHeight="1">
+      <c r="L54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+    </row>
+    <row r="55" spans="12:19">
+      <c r="L55" s="5"/>
+      <c r="M55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S55" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-    </row>
-    <row r="54" spans="12:19">
-      <c r="L54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="12:19">
-      <c r="L55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="12:19">
-      <c r="L56" s="5"/>
-      <c r="M56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="P56" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="L56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
     </row>
     <row r="57" spans="12:19">
       <c r="L57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R57" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="12:19">
       <c r="L58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="6"/>
-      <c r="N58" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O58" s="6"/>
-      <c r="P58" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R58" s="6"/>
       <c r="S58" s="6"/>
     </row>
     <row r="59" spans="12:19">
       <c r="L59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N59" s="6"/>
-      <c r="O59" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="R59" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S59" s="6"/>
     </row>
     <row r="60" spans="12:19">
       <c r="L60" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q60" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
       <c r="S60" s="6"/>
-    </row>
-    <row r="61" spans="12:19">
-      <c r="L61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A116D-2E21-DE4B-B03C-FFA4E38409AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500655BE-E7E7-C84F-B158-D819DA061BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -392,10 +392,6 @@
     <t>5월28일</t>
   </si>
   <si>
-    <t>1-3장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5월29일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -417,6 +413,10 @@
   </si>
   <si>
     <t>6월4일</t>
+  </si>
+  <si>
+    <t>1, 2장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -756,6 +756,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +905,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1213,7 +1233,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1389,11 +1409,11 @@
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>104</v>
+      <c r="N5" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>95</v>
@@ -2859,25 +2879,25 @@
     <row r="55" spans="12:19">
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="O55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="P55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="P55" s="5" t="s">
+      <c r="Q55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="R55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="S55" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="56" spans="12:19">

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500655BE-E7E7-C84F-B158-D819DA061BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0166B80A-A98B-D344-9CFB-F6D8195D0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
   <si>
     <t>네트워크와 자료구조</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -110,73 +110,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3월27일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월28일</t>
-  </si>
-  <si>
-    <t>3월29일</t>
-  </si>
-  <si>
-    <t>3월30일</t>
-  </si>
-  <si>
-    <t>3월31일</t>
-  </si>
-  <si>
-    <t>4월1일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월2일</t>
-  </si>
-  <si>
-    <t>4월3일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월4일</t>
-  </si>
-  <si>
-    <t>4월5일</t>
-  </si>
-  <si>
-    <t>4월6일</t>
-  </si>
-  <si>
-    <t>4월7일</t>
-  </si>
-  <si>
-    <t>4월8일</t>
-  </si>
-  <si>
-    <t>4월9일</t>
-  </si>
-  <si>
-    <t>4월10일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월11일</t>
-  </si>
-  <si>
-    <t>4월12일</t>
-  </si>
-  <si>
-    <t>4월13일</t>
-  </si>
-  <si>
-    <t>4월14일</t>
-  </si>
-  <si>
-    <t>4월15일</t>
-  </si>
-  <si>
-    <t>4월16일</t>
-  </si>
-  <si>
     <t>4월17일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -243,10 +176,6 @@
     <t>5월7일</t>
   </si>
   <si>
-    <t>5월8일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5월9일</t>
   </si>
   <si>
@@ -287,13 +216,6 @@
     <t>5월21일</t>
   </si>
   <si>
-    <t>Django CRUD</t>
-  </si>
-  <si>
-    <t>미니 프로젝트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Django 심화</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -302,14 +224,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>휴강</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 모델링</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>실무 프로젝트</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -346,18 +260,6 @@
     <t>12장</t>
   </si>
   <si>
-    <t>4장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11장</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>12장</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -415,7 +317,145 @@
     <t>6월4일</t>
   </si>
   <si>
-    <t>1, 2장</t>
+    <t>6월 5일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 6일</t>
+  </si>
+  <si>
+    <t>6월 7일</t>
+  </si>
+  <si>
+    <t>6월 8일</t>
+  </si>
+  <si>
+    <t>6월 9일</t>
+  </si>
+  <si>
+    <t>6월 11일</t>
+  </si>
+  <si>
+    <t>6월 12일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 13일</t>
+  </si>
+  <si>
+    <t>6월 14일</t>
+  </si>
+  <si>
+    <t>6월 15일</t>
+  </si>
+  <si>
+    <t>6월 16일</t>
+  </si>
+  <si>
+    <t>6월 17일</t>
+  </si>
+  <si>
+    <t>6월 18일</t>
+  </si>
+  <si>
+    <t>6월 19일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 20일</t>
+  </si>
+  <si>
+    <t>6월 21일</t>
+  </si>
+  <si>
+    <t>6월 22일</t>
+  </si>
+  <si>
+    <t>6월 23일</t>
+  </si>
+  <si>
+    <t>6월 24일</t>
+  </si>
+  <si>
+    <t>6월 25일</t>
+  </si>
+  <si>
+    <r>
+      <t>5월8일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SQLD접수기간(0508-0512)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6월 10일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>SQLD시험일</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9, 10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-8장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-11장</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -423,6 +463,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -508,8 +551,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -522,7 +566,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -571,7 +614,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -706,21 +749,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
@@ -756,23 +784,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal style="thick">
-        <color theme="1" tint="0.499984740745262"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -822,10 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
@@ -858,15 +866,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,7 +914,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025D3D-8BEE-C54D-9DAF-5D3E181419BD}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1301,20 +1312,20 @@
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>74</v>
+      <c r="M2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -1329,30 +1340,24 @@
       <c r="C3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19">
@@ -1365,28 +1370,27 @@
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>95</v>
+      <c r="M4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="9" t="s">
-        <v>95</v>
+      <c r="O4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19">
@@ -1399,30 +1403,27 @@
       <c r="C5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="35" t="s">
-        <v>111</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>95</v>
+        <v>55</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1435,11 +1436,11 @@
       <c r="C6" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="L6" s="5" t="s">
@@ -1463,11 +1464,11 @@
       <c r="C7" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="L7" s="5"/>
@@ -1503,30 +1504,30 @@
       <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="L8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>76</v>
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1541,28 +1542,22 @@
       <c r="C9" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19">
@@ -1575,28 +1570,28 @@
       <c r="C10" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>95</v>
+      <c r="M10" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="9" t="s">
-        <v>95</v>
+      <c r="O10" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="9" t="s">
-        <v>95</v>
+      <c r="Q10" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1611,33 +1606,33 @@
       <c r="C11" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="1"/>
       <c r="L11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1650,12 +1645,12 @@
       <c r="C12" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="1"/>
       <c r="L12" s="5" t="s">
         <v>15</v>
@@ -1678,12 +1673,12 @@
       <c r="C13" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="1"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
@@ -1718,31 +1713,29 @@
       <c r="C14" s="2">
         <v>0.625</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="1"/>
       <c r="L14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
     </row>
@@ -1756,28 +1749,22 @@
       <c r="C15" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="1"/>
       <c r="L15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19">
@@ -1790,26 +1777,26 @@
       <c r="C16" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="1"/>
       <c r="L16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>95</v>
+      <c r="M16" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="9" t="s">
-        <v>95</v>
+      <c r="O16" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="9" t="s">
-        <v>95</v>
+      <c r="Q16" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1824,35 +1811,34 @@
       <c r="C17" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="1"/>
       <c r="L17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S17" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2">
@@ -1864,12 +1850,12 @@
       <c r="C18" s="2">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="1"/>
       <c r="L18" s="5" t="s">
         <v>15</v>
@@ -1892,34 +1878,34 @@
       <c r="C19" s="2">
         <v>0.72916666666666696</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="1"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1932,30 +1918,30 @@
       <c r="C20" s="2">
         <v>0.75</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="1"/>
       <c r="L20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -1970,30 +1956,24 @@
       <c r="C21" s="2">
         <v>0.77083333333333404</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
       <c r="L21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R21" s="6"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
@@ -2006,26 +1986,26 @@
       <c r="C22" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
       <c r="L22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>95</v>
+      <c r="M22" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N22" s="6"/>
-      <c r="O22" s="9" t="s">
-        <v>95</v>
+      <c r="O22" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="Q22" s="9" t="s">
-        <v>95</v>
+      <c r="Q22" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2040,35 +2020,35 @@
       <c r="C23" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="L23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2081,11 +2061,11 @@
       <c r="C24" s="2">
         <v>0.83333333333333404</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="4"/>
       <c r="J24" s="1"/>
       <c r="L24" s="5" t="s">
@@ -2109,34 +2089,34 @@
       <c r="C25" s="2">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="O25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="P25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="R25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="S25" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
@@ -2149,22 +2129,22 @@
       <c r="C26" s="2">
         <v>0.875000000000001</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="33" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="1"/>
@@ -2172,19 +2152,19 @@
         <v>16</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2199,28 +2179,22 @@
       <c r="C27" s="2">
         <v>0.89583333333333404</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="34"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="1"/>
       <c r="L27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R27" s="6"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19">
@@ -2233,26 +2207,26 @@
       <c r="C28" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="34"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="1"/>
       <c r="L28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>95</v>
+      <c r="M28" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N28" s="6"/>
-      <c r="O28" s="9" t="s">
-        <v>95</v>
+      <c r="O28" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P28" s="6"/>
-      <c r="Q28" s="9" t="s">
-        <v>95</v>
+      <c r="Q28" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2267,35 +2241,35 @@
       <c r="C29" s="2">
         <v>0.937500000000001</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
+      <c r="D29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="1"/>
       <c r="L29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>95</v>
+        <v>106</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2308,12 +2282,12 @@
       <c r="C30" s="2">
         <v>0.95833333333333404</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="1"/>
       <c r="L30" s="5" t="s">
         <v>15</v>
@@ -2336,34 +2310,34 @@
       <c r="C31" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="1"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2376,31 +2350,33 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="1"/>
       <c r="L32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q32" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
     </row>
@@ -2414,28 +2390,22 @@
       <c r="C33" s="2">
         <v>1.0208333333333299</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="1"/>
       <c r="L33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="6"/>
-      <c r="N33" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19">
@@ -2448,26 +2418,26 @@
       <c r="C34" s="2">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="1"/>
       <c r="L34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>95</v>
+      <c r="M34" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="9" t="s">
-        <v>95</v>
+      <c r="O34" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="9" t="s">
-        <v>95</v>
+      <c r="Q34" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -2482,34 +2452,35 @@
       <c r="C35" s="2">
         <v>1.0625</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="1"/>
       <c r="L35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
@@ -2521,12 +2492,12 @@
       <c r="C36" s="2">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="1"/>
       <c r="L36" s="5" t="s">
         <v>15</v>
@@ -2542,25 +2513,25 @@
     <row r="37" spans="1:19">
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2568,19 +2539,19 @@
         <v>16</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -2590,33 +2561,27 @@
         <v>17</v>
       </c>
       <c r="M39" s="6"/>
-      <c r="N39" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="R39" s="6"/>
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
       <c r="L40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>95</v>
+      <c r="M40" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="N40" s="6"/>
-      <c r="O40" s="9" t="s">
-        <v>95</v>
+      <c r="O40" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="P40" s="6"/>
-      <c r="Q40" s="9" t="s">
-        <v>95</v>
+      <c r="Q40" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -2625,9 +2590,23 @@
       <c r="L41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="M41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19">
       <c r="L42" s="5" t="s">
@@ -2644,355 +2623,173 @@
     <row r="43" spans="1:19">
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="L44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
     </row>
     <row r="45" spans="1:19">
       <c r="L45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M45" s="6"/>
-      <c r="N45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45" s="6"/>
     </row>
     <row r="46" spans="1:19">
       <c r="L46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
     </row>
     <row r="47" spans="1:19">
       <c r="L47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R47" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:19">
       <c r="L48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
     </row>
     <row r="49" spans="12:19">
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="12:19">
       <c r="L50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
     </row>
     <row r="51" spans="12:19">
       <c r="L51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S51" s="6"/>
     </row>
     <row r="52" spans="12:19">
       <c r="L52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
     </row>
     <row r="53" spans="12:19">
       <c r="L53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
     </row>
     <row r="54" spans="12:19" ht="18" customHeight="1">
       <c r="L54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
     </row>
     <row r="55" spans="12:19">
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="12:19">
       <c r="L56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
     </row>
     <row r="57" spans="12:19">
       <c r="L57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="6"/>
-      <c r="N57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O57" s="6"/>
-      <c r="P57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S57" s="6"/>
     </row>
     <row r="58" spans="12:19">
       <c r="L58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
     </row>
     <row r="59" spans="12:19">
       <c r="L59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="P59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="R59" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S59" s="6"/>
     </row>
     <row r="60" spans="12:19">
       <c r="L60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/🥸.xlsx
+++ b/🥸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e_o_n_l_a_/Desktop/패캠)TIL&amp;MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0166B80A-A98B-D344-9CFB-F6D8195D0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B21F14-C362-7541-AB6A-CD6E5B5BC999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{F7871139-DFAA-A845-8BB8-549277C4819C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
   <si>
     <t>네트워크와 자료구조</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>부트스트랩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>MySQL</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -110,28 +106,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4월17일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월18일</t>
-  </si>
-  <si>
-    <t>4월19일</t>
-  </si>
-  <si>
-    <t>4월20일</t>
-  </si>
-  <si>
-    <t>4월21일</t>
-  </si>
-  <si>
-    <t>4월22일</t>
-  </si>
-  <si>
-    <t>4월23일</t>
-  </si>
-  <si>
     <t>4월24일</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -224,20 +198,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>실무 프로젝트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3장</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4장</t>
-  </si>
-  <si>
-    <t>5장</t>
-  </si>
-  <si>
     <t>6장</t>
   </si>
   <si>
@@ -356,28 +320,6 @@
   </si>
   <si>
     <t>6월 18일</t>
-  </si>
-  <si>
-    <t>6월 19일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월 20일</t>
-  </si>
-  <si>
-    <t>6월 21일</t>
-  </si>
-  <si>
-    <t>6월 22일</t>
-  </si>
-  <si>
-    <t>6월 23일</t>
-  </si>
-  <si>
-    <t>6월 24일</t>
-  </si>
-  <si>
-    <t>6월 25일</t>
   </si>
   <si>
     <r>
@@ -456,6 +398,30 @@
   </si>
   <si>
     <t>9-11장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS 언어공부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS 공부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미 1차 프로젝트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미 2차 프로젝트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 프로젝트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4장, 5장</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -839,6 +805,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,12 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1241,19 +1207,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8025D3D-8BEE-C54D-9DAF-5D3E181419BD}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="9" width="10.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="13" max="19" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1263,25 +1229,25 @@
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19">
@@ -1310,22 +1276,22 @@
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -1340,17 +1306,17 @@
       <c r="C3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="L3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1370,26 +1336,26 @@
       <c r="C4" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="L4" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S4" s="6"/>
     </row>
@@ -1403,28 +1369,23 @@
       <c r="C5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
       <c r="L5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
@@ -1436,15 +1397,15 @@
       <c r="C6" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="L6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1464,34 +1425,34 @@
       <c r="C7" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1504,30 +1465,30 @@
       <c r="C8" s="2">
         <v>0.5</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="4"/>
       <c r="J8" s="1"/>
       <c r="L8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1542,15 +1503,15 @@
       <c r="C9" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="L9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1570,28 +1531,28 @@
       <c r="C10" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1606,33 +1567,33 @@
       <c r="C11" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="1"/>
       <c r="L11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1645,15 +1606,15 @@
       <c r="C12" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="1"/>
       <c r="L12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1673,34 +1634,34 @@
       <c r="C13" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="1"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1713,29 +1674,31 @@
       <c r="C14" s="2">
         <v>0.625</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="1"/>
       <c r="L14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
     </row>
@@ -1749,15 +1712,15 @@
       <c r="C15" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="1"/>
       <c r="L15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -1777,26 +1740,26 @@
       <c r="C16" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="1"/>
       <c r="L16" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1811,33 +1774,33 @@
       <c r="C17" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="1"/>
       <c r="L17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1850,15 +1813,15 @@
       <c r="C18" s="2">
         <v>0.70833333333333404</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="1"/>
       <c r="L18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -1878,34 +1841,34 @@
       <c r="C19" s="2">
         <v>0.72916666666666696</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="1"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="S19" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1918,30 +1881,30 @@
       <c r="C20" s="2">
         <v>0.75</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="1"/>
       <c r="L20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -1956,17 +1919,17 @@
       <c r="C21" s="2">
         <v>0.77083333333333404</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="L21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -1986,26 +1949,26 @@
       <c r="C22" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="L22" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2020,35 +1983,35 @@
       <c r="C23" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="L23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2061,15 +2024,15 @@
       <c r="C24" s="2">
         <v>0.83333333333333404</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="4"/>
       <c r="J24" s="1"/>
       <c r="L24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2089,34 +2052,34 @@
       <c r="C25" s="2">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="4"/>
       <c r="J25" s="1"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
@@ -2129,42 +2092,42 @@
       <c r="C26" s="2">
         <v>0.875000000000001</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="33" t="s">
+      <c r="D26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="33" t="s">
+      <c r="E26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="G26" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="20" t="s">
         <v>13</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="J26" s="1"/>
       <c r="L26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2179,15 +2142,15 @@
       <c r="C27" s="2">
         <v>0.89583333333333404</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="33"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="1"/>
       <c r="L27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2207,26 +2170,26 @@
       <c r="C28" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="33"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="1"/>
       <c r="L28" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2241,36 +2204,37 @@
       <c r="C29" s="2">
         <v>0.937500000000001</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
       <c r="J29" s="1"/>
       <c r="L29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2">
@@ -2282,15 +2246,15 @@
       <c r="C30" s="2">
         <v>0.95833333333333404</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="1"/>
       <c r="L30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -2310,34 +2274,34 @@
       <c r="C31" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="1"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="R31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="S31" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2350,32 +2314,32 @@
       <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="D32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="1"/>
       <c r="L32" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2390,15 +2354,15 @@
       <c r="C33" s="2">
         <v>1.0208333333333299</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="1"/>
       <c r="L33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -2418,26 +2382,26 @@
       <c r="C34" s="2">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
       <c r="J34" s="1"/>
       <c r="L34" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -2452,33 +2416,33 @@
       <c r="C35" s="2">
         <v>1.0625</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="1"/>
       <c r="L35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>109</v>
+        <v>55</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S35" s="6"/>
     </row>
@@ -2492,15 +2456,15 @@
       <c r="C36" s="2">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="1"/>
       <c r="L36" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
@@ -2513,52 +2477,50 @@
     <row r="37" spans="1:19">
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="R37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="S37" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="L38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:19">
       <c r="L39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -2566,97 +2528,102 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19">
       <c r="L40" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N40" s="6"/>
       <c r="O40" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
     </row>
     <row r="41" spans="1:19">
       <c r="L41" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O41" s="35" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S41" s="6"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="1:19">
       <c r="L42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="43" spans="1:19">
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="S43" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="L44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="L45" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="L46" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -2667,7 +2634,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="L47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -2678,119 +2645,10 @@
     </row>
     <row r="48" spans="1:19">
       <c r="L48" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="12:19">
-      <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="12:19">
-      <c r="L50" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="12:19">
-      <c r="L51" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="12:19">
-      <c r="L52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-    </row>
-    <row r="53" spans="12:19">
-      <c r="L53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="12:19" ht="18" customHeight="1">
-      <c r="L54" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="12:19">
-      <c r="L55" s="5"/>
-      <c r="M55" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="12:19">
-      <c r="L56" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="12:19">
-      <c r="L57" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="12:19">
-      <c r="L58" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="12:19">
-      <c r="L59" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="12:19">
-      <c r="L60" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    </row>
+    <row r="54" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="D29:I31"/>
